--- a/animal.xlsx
+++ b/animal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Literal Zoo\babi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>Ayam</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>foodType</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>food_weight</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1112,7 @@
     <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1119,8 +1128,17 @@
       <c r="E1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1136,8 +1154,11 @@
       <c r="E2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1153,8 +1174,11 @@
       <c r="E3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1170,8 +1194,11 @@
       <c r="E4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1187,8 +1214,11 @@
       <c r="E5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1204,8 +1234,11 @@
       <c r="E6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1221,8 +1254,11 @@
       <c r="E7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1238,8 +1274,11 @@
       <c r="E8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1255,8 +1294,11 @@
       <c r="E9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1272,8 +1314,11 @@
       <c r="E10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1289,8 +1334,11 @@
       <c r="E11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1306,8 +1354,11 @@
       <c r="E12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1323,8 +1374,11 @@
       <c r="E13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1340,8 +1394,11 @@
       <c r="E14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1357,8 +1414,11 @@
       <c r="E15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1374,8 +1434,11 @@
       <c r="E16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1391,8 +1454,11 @@
       <c r="E17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1408,8 +1474,11 @@
       <c r="E18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1425,8 +1494,11 @@
       <c r="E19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1442,8 +1514,11 @@
       <c r="E20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1459,8 +1534,11 @@
       <c r="E21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1476,8 +1554,11 @@
       <c r="E22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1493,8 +1574,11 @@
       <c r="E23" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1509,13 +1593,16 @@
       </c>
       <c r="E24">
         <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:D23">
     <sortCondition ref="D1:D23"/>
   </sortState>
-  <conditionalFormatting sqref="E2:E24">
+  <conditionalFormatting sqref="E2:E24 F2">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/animal.xlsx
+++ b/animal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Literal Zoo\babi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\OOP\Tubes 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>Ayam</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>food_weight</t>
+  </si>
+  <si>
+    <t>Ganti aja ya wkwkwkwk</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +597,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -757,8 +766,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -804,17 +814,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1101,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,12 +1157,15 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
@@ -1175,6 +1178,9 @@
         <v>55</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
@@ -1182,7 +1188,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -1195,6 +1201,9 @@
         <v>56</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -1202,7 +1211,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
@@ -1215,6 +1224,9 @@
         <v>57</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -1222,7 +1234,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
@@ -1236,6 +1248,9 @@
       </c>
       <c r="F6">
         <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,12 +1272,15 @@
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
@@ -1275,6 +1293,9 @@
         <v>60</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
@@ -1297,6 +1318,9 @@
       <c r="F9">
         <v>3</v>
       </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1317,6 +1341,9 @@
       <c r="F10">
         <v>2</v>
       </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1337,6 +1364,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1357,6 +1387,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1377,6 +1410,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1397,6 +1433,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1417,12 +1456,15 @@
       <c r="F15">
         <v>2</v>
       </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
@@ -1437,8 +1479,11 @@
       <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1457,8 +1502,11 @@
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1477,12 +1525,15 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
@@ -1497,8 +1548,11 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1517,8 +1571,11 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1537,8 +1594,11 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1557,8 +1617,11 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1577,12 +1640,15 @@
       <c r="F23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
@@ -1596,6 +1662,15 @@
       </c>
       <c r="F24">
         <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1678,7 @@
     <sortCondition ref="D1:D23"/>
   </sortState>
   <conditionalFormatting sqref="E2:E24 F2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/animal.xlsx
+++ b/animal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\OOP\Tubes 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Literal Zoo\babi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,141 +21,48 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
-    <t>Ayam</t>
-  </si>
-  <si>
     <t>Cock-a-doodle-doo!</t>
   </si>
   <si>
-    <t>Kucing</t>
-  </si>
-  <si>
     <t>Meow</t>
   </si>
   <si>
-    <t>Sapi</t>
-  </si>
-  <si>
     <t>Mooo...</t>
   </si>
   <si>
-    <t>Kelinci</t>
-  </si>
-  <si>
     <t>Squeak-squeak</t>
   </si>
   <si>
-    <t>Kambing</t>
-  </si>
-  <si>
-    <t>Baa..</t>
-  </si>
-  <si>
-    <t>Pelikan</t>
-  </si>
-  <si>
     <t>Kraoooo</t>
   </si>
   <si>
-    <t>Capung</t>
-  </si>
-  <si>
-    <t>*flies around*</t>
-  </si>
-  <si>
-    <t>Kunang-kunang"</t>
-  </si>
-  <si>
-    <t>*flickers*"</t>
-  </si>
-  <si>
-    <t>Nyamuk</t>
-  </si>
-  <si>
-    <t>Bzzzz</t>
-  </si>
-  <si>
-    <t>Puyuh</t>
-  </si>
-  <si>
-    <t>Chip Whirp Whirp!</t>
-  </si>
-  <si>
     <t>Salmon</t>
   </si>
   <si>
     <t>blub blub</t>
   </si>
   <si>
-    <t>Bushido</t>
-  </si>
-  <si>
-    <t>splash</t>
-  </si>
-  <si>
-    <t>Cumi-cumi</t>
-  </si>
-  <si>
-    <t>sluhb.;sluhb..</t>
-  </si>
-  <si>
-    <t>Mas</t>
-  </si>
-  <si>
     <t>*glub glub*</t>
   </si>
   <si>
-    <t>Penyu</t>
-  </si>
-  <si>
     <t>swoosh</t>
   </si>
   <si>
-    <t>AnjingLaut</t>
-  </si>
-  <si>
     <t>Bawrk Bawrk!</t>
   </si>
   <si>
-    <t>KudaLaut</t>
-  </si>
-  <si>
     <t>*swims slowly*</t>
   </si>
   <si>
-    <t>Kuda</t>
-  </si>
-  <si>
     <t>Neiigh!</t>
   </si>
   <si>
-    <t>Ular</t>
-  </si>
-  <si>
     <t>Hsssss...</t>
   </si>
   <si>
-    <t>Gagak</t>
-  </si>
-  <si>
     <t>Squawk!</t>
   </si>
   <si>
-    <t>Semut</t>
-  </si>
-  <si>
-    <t>.....</t>
-  </si>
-  <si>
-    <t>Kepik</t>
-  </si>
-  <si>
-    <t>*fly away*</t>
-  </si>
-  <si>
-    <t>Bunglon</t>
-  </si>
-  <si>
     <t>Scrook...</t>
   </si>
   <si>
@@ -259,6 +166,99 @@
   </si>
   <si>
     <t>Ganti aja ya wkwkwkwk</t>
+  </si>
+  <si>
+    <t>Pelican</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Goat</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Baaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Beeeeeek</t>
+  </si>
+  <si>
+    <t>Chameleon</t>
+  </si>
+  <si>
+    <t>Goldfish</t>
+  </si>
+  <si>
+    <t>Whale</t>
+  </si>
+  <si>
+    <t>wooooooooooooo</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>sluhb..sluhb..</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Dolphin</t>
+  </si>
+  <si>
+    <t>Owl</t>
+  </si>
+  <si>
+    <t>HootHoot</t>
+  </si>
+  <si>
+    <t>Pigeon</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Kweee</t>
+  </si>
+  <si>
+    <t>Coo Coo</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>shriekkkkkk</t>
+  </si>
+  <si>
+    <t>Toucan</t>
+  </si>
+  <si>
+    <t>*flies away*</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,28 +1114,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1143,16 +1143,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1166,16 +1166,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1189,16 +1189,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1212,16 +1212,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1235,16 +1235,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1258,16 +1258,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1281,16 +1281,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1304,16 +1304,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1327,16 +1327,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1350,16 +1350,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1373,16 +1373,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1396,16 +1396,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1419,16 +1419,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1442,16 +1442,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1465,16 +1465,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1488,16 +1488,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1511,16 +1511,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1534,16 +1534,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1557,16 +1557,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1580,16 +1580,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1603,16 +1603,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1626,16 +1626,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1649,13 +1649,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1670,7 +1670,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/animal.xlsx
+++ b/animal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Literal Zoo\babi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\OOP\Tubes 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
   <si>
     <t>Cock-a-doodle-doo!</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Pigeon</t>
   </si>
   <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
     <t>Kweee</t>
   </si>
   <si>
@@ -259,6 +256,21 @@
   </si>
   <si>
     <t>*flies away*</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>tame</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Canary</t>
   </si>
 </sst>
 </file>
@@ -419,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +609,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -766,9 +772,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1101,575 +1108,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <f>IF(D2=$D$2,1,IF(D2=$D$9,0,2))</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I24" si="0">IF(D3=$D$2,1,IF(D3=$D$9,0,2))</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>500</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
